--- a/components/Tables.xlsx
+++ b/components/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbala\Documents\github\SHA\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EBF2C-9931-4AC3-BCE8-38231B0972D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A16A5-ABB2-411E-9AE2-C42BBE133324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{22F7FBD8-1905-4881-B452-5DF2DC810220}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>Proportion</t>
   </si>
   <si>
-    <t>0.761(p1)</t>
-  </si>
-  <si>
-    <t>0.527(p2)</t>
+    <t>0.238(p1)</t>
+  </si>
+  <si>
+    <t>0.472(p2)</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -303,24 +303,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -339,58 +333,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1987,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9189FA65-D6BD-4721-911D-672D54E4EBA8}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="I10:N14"/>
+      <selection activeCell="I10" sqref="I10:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2000,10 +2008,13 @@
     <col min="3" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="2"/>
     <col min="17" max="17" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -2015,504 +2026,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="24" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>3.6310679611650398</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.53907229188661</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>8.2645502645502606</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1.05602951791679</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>1.7030181077517099E-93</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="K2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
         <v>5.09</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>5.09</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="23">
         <v>34.464348763359297</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="27">
         <v>1.9242642006520101E-6</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" s="28" t="b">
+      <c r="Q2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4.6900489396411</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.43650503130787</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>6.1208791208791196</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2.5627730723872202</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>19260.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1.5486286438029399E-6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>4.72</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>4.72</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="26" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="27"/>
+      <c r="Q3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="28" t="b">
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>4.7738419618528596</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>2.4295125058117799</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>4.9851632047477699</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>2.56946565588003</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>59198.5</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>0.32351295774566302</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>4.75</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>4.75</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="Q4" s="26" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="27"/>
+      <c r="Q4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="28" t="b">
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>5.57</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>5.57</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="Q5" s="26" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="27"/>
+      <c r="Q5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="28" t="b">
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>4.8</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>4.8</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="Q6" s="26" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="27"/>
+      <c r="Q6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="28" t="b">
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>3.57</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>3.57</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="Q7" s="29" t="s">
+      <c r="N7" s="26"/>
+      <c r="O7" s="28"/>
+      <c r="Q7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="30" t="b">
+      <c r="R7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="S7" s="30" t="b">
+      <c r="S7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30" t="b">
+      <c r="T7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="V7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="31" t="b">
+      <c r="V7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
+    <row r="9" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
       <c r="H11"/>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="33">
         <v>467</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="15">
+      <c r="L11" s="34">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="M11" s="35">
         <v>-4.70734621321097</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="27">
         <v>1.25481238701975E-6</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
       <c r="H12"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="33">
         <v>146</v>
       </c>
-      <c r="L12" s="32">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
       <c r="H13"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="37">
         <v>48</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="34">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="39">
+        <v>43</v>
+      </c>
+      <c r="L14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="34">
-        <v>43</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -2520,70 +2476,23 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="O2:O7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="M11:M14"/>
     <mergeCell ref="N11:N14"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="N2:N7"/>
-    <mergeCell ref="O2:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
